--- a/data/processed/Excels/X_train_sel_k6.xlsx
+++ b/data/processed/Excels/X_train_sel_k6.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Insulin</t>
+          <t>BloodPressure</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,10 +473,10 @@
         <v>84</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="E2" t="n">
         <v>0.304</v>
@@ -493,13 +493,13 @@
         <v>112</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
         <v>28.2</v>
       </c>
       <c r="E3" t="n">
-        <v>1.282</v>
+        <v>1.2</v>
       </c>
       <c r="F3" t="n">
         <v>50</v>
@@ -513,7 +513,7 @@
         <v>139</v>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
         <v>28.7</v>
@@ -533,7 +533,7 @@
         <v>161</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>21.9</v>
@@ -553,7 +553,7 @@
         <v>134</v>
       </c>
       <c r="C6" t="n">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
         <v>46.2</v>
@@ -573,7 +573,7 @@
         <v>130</v>
       </c>
       <c r="C7" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
         <v>25.9</v>
@@ -593,7 +593,7 @@
         <v>132</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
         <v>32.9</v>
@@ -613,7 +613,7 @@
         <v>161</v>
       </c>
       <c r="C9" t="n">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D9" t="n">
         <v>25.5</v>
@@ -633,7 +633,7 @@
         <v>108</v>
       </c>
       <c r="C10" t="n">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
         <v>35.5</v>
@@ -653,7 +653,7 @@
         <v>80</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D11" t="n">
         <v>19.1</v>
@@ -673,7 +673,7 @@
         <v>87</v>
       </c>
       <c r="C12" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D12" t="n">
         <v>37.2</v>
@@ -693,7 +693,7 @@
         <v>171</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D13" t="n">
         <v>43.6</v>
@@ -713,7 +713,7 @@
         <v>88</v>
       </c>
       <c r="C14" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D14" t="n">
         <v>29</v>
@@ -733,7 +733,7 @@
         <v>146</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D15" t="n">
         <v>28.9</v>
@@ -753,7 +753,7 @@
         <v>191</v>
       </c>
       <c r="C16" t="n">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D16" t="n">
         <v>30.9</v>
@@ -773,7 +773,7 @@
         <v>122</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D17" t="n">
         <v>33.3</v>
@@ -793,7 +793,7 @@
         <v>159</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D18" t="n">
         <v>27.4</v>
@@ -813,7 +813,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D19" t="n">
         <v>32.9</v>
@@ -833,7 +833,7 @@
         <v>123</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D20" t="n">
         <v>32</v>
@@ -853,10 +853,10 @@
         <v>123</v>
       </c>
       <c r="C21" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>57.3</v>
+        <v>50.55</v>
       </c>
       <c r="E21" t="n">
         <v>0.88</v>
@@ -873,7 +873,7 @@
         <v>155</v>
       </c>
       <c r="C22" t="n">
-        <v>545</v>
+        <v>84</v>
       </c>
       <c r="D22" t="n">
         <v>38.7</v>
@@ -893,7 +893,7 @@
         <v>102</v>
       </c>
       <c r="C23" t="n">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D23" t="n">
         <v>29.3</v>
@@ -913,7 +913,7 @@
         <v>125</v>
       </c>
       <c r="C24" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D24" t="n">
         <v>33.8</v>
@@ -933,7 +933,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D25" t="n">
         <v>30</v>
@@ -953,7 +953,7 @@
         <v>104</v>
       </c>
       <c r="C26" t="n">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="D26" t="n">
         <v>29.9</v>
@@ -973,7 +973,7 @@
         <v>131</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D27" t="n">
         <v>31.6</v>
@@ -993,7 +993,7 @@
         <v>145</v>
       </c>
       <c r="C28" t="n">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="D28" t="n">
         <v>22.2</v>
@@ -1013,7 +1013,7 @@
         <v>152</v>
       </c>
       <c r="C29" t="n">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="D29" t="n">
         <v>41.5</v>
@@ -1033,7 +1033,7 @@
         <v>100</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D30" t="n">
         <v>38.7</v>
@@ -1053,7 +1053,7 @@
         <v>147</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D31" t="n">
         <v>49.3</v>
@@ -1073,13 +1073,13 @@
         <v>128</v>
       </c>
       <c r="C32" t="n">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="D32" t="n">
         <v>43.3</v>
       </c>
       <c r="E32" t="n">
-        <v>1.224</v>
+        <v>1.2</v>
       </c>
       <c r="F32" t="n">
         <v>31</v>
@@ -1093,7 +1093,7 @@
         <v>100</v>
       </c>
       <c r="C33" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D33" t="n">
         <v>30.8</v>
@@ -1113,7 +1113,7 @@
         <v>80</v>
       </c>
       <c r="C34" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D34" t="n">
         <v>30</v>
@@ -1133,7 +1133,7 @@
         <v>84</v>
       </c>
       <c r="C35" t="n">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D35" t="n">
         <v>36.9</v>
@@ -1153,7 +1153,7 @@
         <v>194</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D36" t="n">
         <v>23.5</v>
@@ -1173,7 +1173,7 @@
         <v>123</v>
       </c>
       <c r="C37" t="n">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="D37" t="n">
         <v>33.6</v>
@@ -1193,7 +1193,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D38" t="n">
         <v>31</v>
@@ -1213,7 +1213,7 @@
         <v>106</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D39" t="n">
         <v>25.8</v>
@@ -1233,7 +1233,7 @@
         <v>129</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
         <v>39.9</v>
@@ -1253,7 +1253,7 @@
         <v>129</v>
       </c>
       <c r="C41" t="n">
-        <v>270</v>
+        <v>86</v>
       </c>
       <c r="D41" t="n">
         <v>35.1</v>
@@ -1273,7 +1273,7 @@
         <v>61</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D42" t="n">
         <v>34.4</v>
@@ -1293,7 +1293,7 @@
         <v>81</v>
       </c>
       <c r="C43" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D43" t="n">
         <v>30.1</v>
@@ -1313,10 +1313,10 @@
         <v>102</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="E44" t="n">
         <v>0.572</v>
@@ -1333,7 +1333,7 @@
         <v>99</v>
       </c>
       <c r="C45" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D45" t="n">
         <v>25.6</v>
@@ -1353,7 +1353,7 @@
         <v>107</v>
       </c>
       <c r="C46" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D46" t="n">
         <v>36.6</v>
@@ -1373,7 +1373,7 @@
         <v>170</v>
       </c>
       <c r="C47" t="n">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="D47" t="n">
         <v>34.5</v>
@@ -1393,7 +1393,7 @@
         <v>85</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D48" t="n">
         <v>30.1</v>
@@ -1413,7 +1413,7 @@
         <v>102</v>
       </c>
       <c r="C49" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D49" t="n">
         <v>34.5</v>
@@ -1433,7 +1433,7 @@
         <v>97</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D50" t="n">
         <v>35.6</v>
@@ -1453,13 +1453,13 @@
         <v>127</v>
       </c>
       <c r="C51" t="n">
-        <v>275</v>
+        <v>58</v>
       </c>
       <c r="D51" t="n">
         <v>27.7</v>
       </c>
       <c r="E51" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="F51" t="n">
         <v>25</v>
@@ -1473,7 +1473,7 @@
         <v>133</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D52" t="n">
         <v>40.2</v>
@@ -1493,7 +1493,7 @@
         <v>94</v>
       </c>
       <c r="C53" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D53" t="n">
         <v>31.6</v>
@@ -1513,7 +1513,7 @@
         <v>83</v>
       </c>
       <c r="C54" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D54" t="n">
         <v>34.3</v>
@@ -1533,7 +1533,7 @@
         <v>123</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D55" t="n">
         <v>35.2</v>
@@ -1553,7 +1553,7 @@
         <v>187</v>
       </c>
       <c r="C56" t="n">
-        <v>304</v>
+        <v>68</v>
       </c>
       <c r="D56" t="n">
         <v>37.7</v>
@@ -1573,7 +1573,7 @@
         <v>152</v>
       </c>
       <c r="C57" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D57" t="n">
         <v>26.8</v>
@@ -1593,7 +1593,7 @@
         <v>129</v>
       </c>
       <c r="C58" t="n">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="D58" t="n">
         <v>33.2</v>
@@ -1613,7 +1613,7 @@
         <v>106</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D59" t="n">
         <v>37.5</v>
@@ -1633,7 +1633,7 @@
         <v>111</v>
       </c>
       <c r="C60" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D60" t="n">
         <v>29.5</v>
@@ -1653,7 +1653,7 @@
         <v>111</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D61" t="n">
         <v>24.6</v>
@@ -1673,7 +1673,7 @@
         <v>143</v>
       </c>
       <c r="C62" t="n">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="D62" t="n">
         <v>36.6</v>
@@ -1693,7 +1693,7 @@
         <v>124</v>
       </c>
       <c r="C63" t="n">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="D63" t="n">
         <v>21.8</v>
@@ -1713,10 +1713,10 @@
         <v>165</v>
       </c>
       <c r="C64" t="n">
-        <v>680</v>
+        <v>90</v>
       </c>
       <c r="D64" t="n">
-        <v>52.3</v>
+        <v>50.55</v>
       </c>
       <c r="E64" t="n">
         <v>0.427</v>
@@ -1733,7 +1733,7 @@
         <v>108</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D65" t="n">
         <v>30.5</v>
@@ -1753,7 +1753,7 @@
         <v>137</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D66" t="n">
         <v>31.2</v>
@@ -1773,7 +1773,7 @@
         <v>179</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D67" t="n">
         <v>35.1</v>
@@ -1793,7 +1793,7 @@
         <v>171</v>
       </c>
       <c r="C68" t="n">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D68" t="n">
         <v>33.3</v>
@@ -1813,7 +1813,7 @@
         <v>83</v>
       </c>
       <c r="C69" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D69" t="n">
         <v>29.3</v>
@@ -1833,7 +1833,7 @@
         <v>101</v>
       </c>
       <c r="C70" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D70" t="n">
         <v>24.2</v>
@@ -1853,7 +1853,7 @@
         <v>120</v>
       </c>
       <c r="C71" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D71" t="n">
         <v>30.5</v>
@@ -1873,7 +1873,7 @@
         <v>89</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D72" t="n">
         <v>22.5</v>
@@ -1893,7 +1893,7 @@
         <v>129</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D73" t="n">
         <v>38.5</v>
@@ -1913,7 +1913,7 @@
         <v>119</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
         <v>32.4</v>
@@ -1933,7 +1933,7 @@
         <v>109</v>
       </c>
       <c r="C75" t="n">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D75" t="n">
         <v>34.8</v>
@@ -1953,7 +1953,7 @@
         <v>127</v>
       </c>
       <c r="C76" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="D76" t="n">
         <v>36.3</v>
@@ -1973,7 +1973,7 @@
         <v>105</v>
       </c>
       <c r="C77" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D77" t="n">
         <v>30.8</v>
@@ -1993,7 +1993,7 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D78" t="n">
         <v>35.8</v>
@@ -2013,7 +2013,7 @@
         <v>95</v>
       </c>
       <c r="C79" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D79" t="n">
         <v>23.9</v>
@@ -2033,7 +2033,7 @@
         <v>105</v>
       </c>
       <c r="C80" t="n">
-        <v>325</v>
+        <v>72</v>
       </c>
       <c r="D80" t="n">
         <v>36.9</v>
@@ -2053,7 +2053,7 @@
         <v>135</v>
       </c>
       <c r="C81" t="n">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="D81" t="n">
         <v>42.3</v>
@@ -2073,7 +2073,7 @@
         <v>131</v>
       </c>
       <c r="C82" t="n">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="D82" t="n">
         <v>33.1</v>
@@ -2093,7 +2093,7 @@
         <v>103</v>
       </c>
       <c r="C83" t="n">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="D83" t="n">
         <v>43.3</v>
@@ -2113,13 +2113,13 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="D84" t="n">
         <v>28.5</v>
       </c>
       <c r="E84" t="n">
-        <v>1.699</v>
+        <v>1.2</v>
       </c>
       <c r="F84" t="n">
         <v>25</v>
@@ -2133,7 +2133,7 @@
         <v>128</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D85" t="n">
         <v>21.1</v>
@@ -2153,7 +2153,7 @@
         <v>122</v>
       </c>
       <c r="C86" t="n">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="D86" t="n">
         <v>35.1</v>
@@ -2173,7 +2173,7 @@
         <v>138</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D87" t="n">
         <v>36.3</v>
@@ -2193,7 +2193,7 @@
         <v>125</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D88" t="n">
         <v>24.7</v>
@@ -2213,7 +2213,7 @@
         <v>101</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D89" t="n">
         <v>24.6</v>
@@ -2233,7 +2233,7 @@
         <v>133</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D90" t="n">
         <v>32.9</v>
@@ -2253,7 +2253,7 @@
         <v>111</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D91" t="n">
         <v>26.2</v>
@@ -2273,7 +2273,7 @@
         <v>95</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D92" t="n">
         <v>35.4</v>
@@ -2293,7 +2293,7 @@
         <v>117</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D93" t="n">
         <v>34.1</v>
@@ -2313,7 +2313,7 @@
         <v>165</v>
       </c>
       <c r="C94" t="n">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="D94" t="n">
         <v>47.9</v>
@@ -2333,7 +2333,7 @@
         <v>109</v>
       </c>
       <c r="C95" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="D95" t="n">
         <v>23.1</v>
@@ -2353,7 +2353,7 @@
         <v>110</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D96" t="n">
         <v>27.8</v>
@@ -2373,7 +2373,7 @@
         <v>106</v>
       </c>
       <c r="C97" t="n">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="D97" t="n">
         <v>39.4</v>
@@ -2393,7 +2393,7 @@
         <v>95</v>
       </c>
       <c r="C98" t="n">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="D98" t="n">
         <v>35</v>
@@ -2410,10 +2410,10 @@
         <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C99" t="n">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D99" t="n">
         <v>27.7</v>
@@ -2433,7 +2433,7 @@
         <v>143</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D100" t="n">
         <v>34.9</v>
@@ -2453,7 +2453,7 @@
         <v>101</v>
       </c>
       <c r="C101" t="n">
-        <v>265</v>
+        <v>58</v>
       </c>
       <c r="D101" t="n">
         <v>24.2</v>
@@ -2473,7 +2473,7 @@
         <v>115</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D102" t="n">
         <v>24</v>
@@ -2493,7 +2493,7 @@
         <v>142</v>
       </c>
       <c r="C103" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="D103" t="n">
         <v>28.8</v>
@@ -2513,7 +2513,7 @@
         <v>116</v>
       </c>
       <c r="C104" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D104" t="n">
         <v>22.1</v>
@@ -2533,7 +2533,7 @@
         <v>126</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D105" t="n">
         <v>30.1</v>
@@ -2553,7 +2553,7 @@
         <v>78</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D106" t="n">
         <v>32.5</v>
@@ -2573,7 +2573,7 @@
         <v>99</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D107" t="n">
         <v>25.4</v>
@@ -2593,7 +2593,7 @@
         <v>143</v>
       </c>
       <c r="C108" t="n">
-        <v>310</v>
+        <v>84</v>
       </c>
       <c r="D108" t="n">
         <v>42.4</v>
@@ -2613,7 +2613,7 @@
         <v>128</v>
       </c>
       <c r="C109" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D109" t="n">
         <v>36.5</v>
@@ -2633,7 +2633,7 @@
         <v>85</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D110" t="n">
         <v>31.2</v>
@@ -2653,7 +2653,7 @@
         <v>87</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D111" t="n">
         <v>21.8</v>
@@ -2673,7 +2673,7 @@
         <v>106</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D112" t="n">
         <v>23.6</v>
@@ -2693,7 +2693,7 @@
         <v>100</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D113" t="n">
         <v>29.7</v>
@@ -2713,7 +2713,7 @@
         <v>124</v>
       </c>
       <c r="C114" t="n">
-        <v>402</v>
+        <v>70</v>
       </c>
       <c r="D114" t="n">
         <v>35.4</v>
@@ -2733,7 +2733,7 @@
         <v>95</v>
       </c>
       <c r="C115" t="n">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D115" t="n">
         <v>44.6</v>
@@ -2753,7 +2753,7 @@
         <v>79</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D116" t="n">
         <v>32</v>
@@ -2773,7 +2773,7 @@
         <v>107</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D117" t="n">
         <v>36.8</v>
@@ -2793,7 +2793,7 @@
         <v>90</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D118" t="n">
         <v>28</v>
@@ -2813,7 +2813,7 @@
         <v>85</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D119" t="n">
         <v>39.6</v>
@@ -2833,7 +2833,7 @@
         <v>160</v>
       </c>
       <c r="C120" t="n">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="D120" t="n">
         <v>30.5</v>
@@ -2853,7 +2853,7 @@
         <v>162</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D121" t="n">
         <v>24.3</v>
@@ -2873,7 +2873,7 @@
         <v>81</v>
       </c>
       <c r="C122" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D122" t="n">
         <v>46.7</v>
@@ -2893,7 +2893,7 @@
         <v>107</v>
       </c>
       <c r="C123" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D123" t="n">
         <v>30.8</v>
@@ -2913,7 +2913,7 @@
         <v>107</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D124" t="n">
         <v>26.5</v>
@@ -2933,7 +2933,7 @@
         <v>144</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D125" t="n">
         <v>38.5</v>
@@ -2953,7 +2953,7 @@
         <v>114</v>
       </c>
       <c r="C126" t="n">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="D126" t="n">
         <v>23.8</v>
@@ -2973,7 +2973,7 @@
         <v>134</v>
       </c>
       <c r="C127" t="n">
-        <v>291</v>
+        <v>58</v>
       </c>
       <c r="D127" t="n">
         <v>26.4</v>
@@ -2993,7 +2993,7 @@
         <v>127</v>
       </c>
       <c r="C128" t="n">
-        <v>335</v>
+        <v>46</v>
       </c>
       <c r="D128" t="n">
         <v>34.4</v>
@@ -3033,7 +3033,7 @@
         <v>168</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D130" t="n">
         <v>38</v>
@@ -3053,7 +3053,7 @@
         <v>171</v>
       </c>
       <c r="C131" t="n">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="D131" t="n">
         <v>45.4</v>
@@ -3073,7 +3073,7 @@
         <v>106</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D132" t="n">
         <v>22.7</v>
@@ -3093,7 +3093,7 @@
         <v>120</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D133" t="n">
         <v>29.6</v>
@@ -3113,7 +3113,7 @@
         <v>195</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D134" t="n">
         <v>30.9</v>
@@ -3133,7 +3133,7 @@
         <v>145</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D135" t="n">
         <v>32.5</v>
@@ -3142,7 +3142,7 @@
         <v>0.235</v>
       </c>
       <c r="F135" t="n">
-        <v>70</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="136">
@@ -3153,7 +3153,7 @@
         <v>105</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D136" t="n">
         <v>20</v>
@@ -3173,7 +3173,7 @@
         <v>143</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D137" t="n">
         <v>45</v>
@@ -3193,7 +3193,7 @@
         <v>80</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D138" t="n">
         <v>39.8</v>
@@ -3213,7 +3213,7 @@
         <v>76</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D139" t="n">
         <v>32.8</v>
@@ -3233,10 +3233,10 @@
         <v>129</v>
       </c>
       <c r="C140" t="n">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D140" t="n">
-        <v>67.09999999999999</v>
+        <v>50.55</v>
       </c>
       <c r="E140" t="n">
         <v>0.319</v>
@@ -3253,7 +3253,7 @@
         <v>86</v>
       </c>
       <c r="C141" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D141" t="n">
         <v>41.3</v>
@@ -3273,7 +3273,7 @@
         <v>129</v>
       </c>
       <c r="C142" t="n">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="D142" t="n">
         <v>36.4</v>
@@ -3293,7 +3293,7 @@
         <v>114</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D143" t="n">
         <v>28.7</v>
@@ -3313,7 +3313,7 @@
         <v>117</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D144" t="n">
         <v>28.7</v>
@@ -3333,7 +3333,7 @@
         <v>189</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D145" t="n">
         <v>34.3</v>
@@ -3353,7 +3353,7 @@
         <v>100</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D146" t="n">
         <v>30</v>
@@ -3373,7 +3373,7 @@
         <v>126</v>
       </c>
       <c r="C147" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D147" t="n">
         <v>25.9</v>
@@ -3393,7 +3393,7 @@
         <v>111</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D148" t="n">
         <v>30.1</v>
@@ -3413,7 +3413,7 @@
         <v>144</v>
       </c>
       <c r="C149" t="n">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="D149" t="n">
         <v>32</v>
@@ -3433,7 +3433,7 @@
         <v>189</v>
       </c>
       <c r="C150" t="n">
-        <v>325</v>
+        <v>64</v>
       </c>
       <c r="D150" t="n">
         <v>31.2</v>
@@ -3453,7 +3453,7 @@
         <v>101</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D151" t="n">
         <v>21</v>
@@ -3473,7 +3473,7 @@
         <v>100</v>
       </c>
       <c r="C152" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D152" t="n">
         <v>25.3</v>
@@ -3493,7 +3493,7 @@
         <v>73</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D153" t="n">
         <v>21.1</v>
@@ -3510,10 +3510,10 @@
         <v>1</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D154" t="n">
         <v>32</v>
@@ -3533,7 +3533,7 @@
         <v>119</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D155" t="n">
         <v>19.6</v>
@@ -3542,7 +3542,7 @@
         <v>0.832</v>
       </c>
       <c r="F155" t="n">
-        <v>72</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="156">
@@ -3553,10 +3553,10 @@
         <v>94</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="E156" t="n">
         <v>0.256</v>
@@ -3573,10 +3573,10 @@
         <v>125</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="E157" t="n">
         <v>0.232</v>
@@ -3593,7 +3593,7 @@
         <v>111</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D158" t="n">
         <v>30.1</v>
@@ -3613,7 +3613,7 @@
         <v>196</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D159" t="n">
         <v>39.8</v>
@@ -3633,7 +3633,7 @@
         <v>158</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D160" t="n">
         <v>31.6</v>
@@ -3653,7 +3653,7 @@
         <v>97</v>
       </c>
       <c r="C161" t="n">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D161" t="n">
         <v>18.2</v>
@@ -3673,7 +3673,7 @@
         <v>121</v>
       </c>
       <c r="C162" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D162" t="n">
         <v>39</v>
@@ -3693,7 +3693,7 @@
         <v>108</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D163" t="n">
         <v>26</v>
@@ -3713,7 +3713,7 @@
         <v>151</v>
       </c>
       <c r="C164" t="n">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="D164" t="n">
         <v>42.9</v>
@@ -3733,7 +3733,7 @@
         <v>103</v>
       </c>
       <c r="C165" t="n">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="D165" t="n">
         <v>27.6</v>
@@ -3753,7 +3753,7 @@
         <v>99</v>
       </c>
       <c r="C166" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D166" t="n">
         <v>20.4</v>
@@ -3773,7 +3773,7 @@
         <v>117</v>
       </c>
       <c r="C167" t="n">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D167" t="n">
         <v>25.2</v>
@@ -3793,7 +3793,7 @@
         <v>134</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D168" t="n">
         <v>23.8</v>
@@ -3813,7 +3813,7 @@
         <v>133</v>
       </c>
       <c r="C169" t="n">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="D169" t="n">
         <v>32.8</v>
@@ -3833,7 +3833,7 @@
         <v>180</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D170" t="n">
         <v>43.3</v>
@@ -3853,10 +3853,10 @@
         <v>114</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="E171" t="n">
         <v>0.189</v>
@@ -3873,7 +3873,7 @@
         <v>108</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D172" t="n">
         <v>27</v>
@@ -3893,7 +3893,7 @@
         <v>141</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D173" t="n">
         <v>27.6</v>
@@ -3913,7 +3913,7 @@
         <v>94</v>
       </c>
       <c r="C174" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="D174" t="n">
         <v>43.5</v>
@@ -3933,7 +3933,7 @@
         <v>99</v>
       </c>
       <c r="C175" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D175" t="n">
         <v>34</v>
@@ -3953,7 +3953,7 @@
         <v>153</v>
       </c>
       <c r="C176" t="n">
-        <v>485</v>
+        <v>82</v>
       </c>
       <c r="D176" t="n">
         <v>40.6</v>
@@ -3970,10 +3970,10 @@
         <v>1</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D177" t="n">
         <v>24.7</v>
@@ -3993,7 +3993,7 @@
         <v>102</v>
       </c>
       <c r="C178" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D178" t="n">
         <v>40.6</v>
@@ -4013,7 +4013,7 @@
         <v>104</v>
       </c>
       <c r="C179" t="n">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="D179" t="n">
         <v>27.8</v>
@@ -4033,7 +4033,7 @@
         <v>95</v>
       </c>
       <c r="C180" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D180" t="n">
         <v>19.6</v>
@@ -4053,7 +4053,7 @@
         <v>142</v>
       </c>
       <c r="C181" t="n">
-        <v>480</v>
+        <v>90</v>
       </c>
       <c r="D181" t="n">
         <v>30.4</v>
@@ -4073,7 +4073,7 @@
         <v>109</v>
       </c>
       <c r="C182" t="n">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="D182" t="n">
         <v>27.9</v>
@@ -4093,7 +4093,7 @@
         <v>108</v>
       </c>
       <c r="C183" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D183" t="n">
         <v>25.2</v>
@@ -4113,7 +4113,7 @@
         <v>181</v>
       </c>
       <c r="C184" t="n">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="D184" t="n">
         <v>35.9</v>
@@ -4127,13 +4127,13 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="B185" t="n">
         <v>136</v>
       </c>
       <c r="C185" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D185" t="n">
         <v>37.1</v>
@@ -4153,7 +4153,7 @@
         <v>106</v>
       </c>
       <c r="C186" t="n">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="D186" t="n">
         <v>34.2</v>
@@ -4173,7 +4173,7 @@
         <v>78</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D187" t="n">
         <v>33.7</v>
@@ -4193,10 +4193,10 @@
         <v>88</v>
       </c>
       <c r="C188" t="n">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="D188" t="n">
-        <v>55</v>
+        <v>50.55</v>
       </c>
       <c r="E188" t="n">
         <v>0.496</v>
@@ -4213,7 +4213,7 @@
         <v>128</v>
       </c>
       <c r="C189" t="n">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="D189" t="n">
         <v>27.5</v>
@@ -4233,7 +4233,7 @@
         <v>108</v>
       </c>
       <c r="C190" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D190" t="n">
         <v>36.1</v>
@@ -4253,7 +4253,7 @@
         <v>164</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D191" t="n">
         <v>30.8</v>
@@ -4273,7 +4273,7 @@
         <v>148</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D192" t="n">
         <v>33.6</v>
@@ -4293,7 +4293,7 @@
         <v>190</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D193" t="n">
         <v>35.5</v>
@@ -4313,7 +4313,7 @@
         <v>81</v>
       </c>
       <c r="C194" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D194" t="n">
         <v>27.5</v>
@@ -4333,7 +4333,7 @@
         <v>68</v>
       </c>
       <c r="C195" t="n">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="D195" t="n">
         <v>35.5</v>
@@ -4353,7 +4353,7 @@
         <v>90</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D196" t="n">
         <v>24.5</v>
@@ -4373,7 +4373,7 @@
         <v>114</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D197" t="n">
         <v>24.9</v>
@@ -4393,7 +4393,7 @@
         <v>124</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D198" t="n">
         <v>27.8</v>
@@ -4413,7 +4413,7 @@
         <v>124</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D199" t="n">
         <v>34</v>
@@ -4433,13 +4433,13 @@
         <v>197</v>
       </c>
       <c r="C200" t="n">
-        <v>744</v>
+        <v>70</v>
       </c>
       <c r="D200" t="n">
         <v>36.7</v>
       </c>
       <c r="E200" t="n">
-        <v>2.329</v>
+        <v>1.2</v>
       </c>
       <c r="F200" t="n">
         <v>31</v>
@@ -4453,7 +4453,7 @@
         <v>186</v>
       </c>
       <c r="C201" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="D201" t="n">
         <v>34.5</v>
@@ -4473,7 +4473,7 @@
         <v>127</v>
       </c>
       <c r="C202" t="n">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="D202" t="n">
         <v>34.5</v>
@@ -4493,7 +4493,7 @@
         <v>91</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D203" t="n">
         <v>29.8</v>
@@ -4513,7 +4513,7 @@
         <v>106</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D204" t="n">
         <v>34.2</v>
@@ -4533,7 +4533,7 @@
         <v>115</v>
       </c>
       <c r="C205" t="n">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="D205" t="n">
         <v>38.1</v>
@@ -4553,7 +4553,7 @@
         <v>122</v>
       </c>
       <c r="C206" t="n">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="D206" t="n">
         <v>29.8</v>
@@ -4573,7 +4573,7 @@
         <v>154</v>
       </c>
       <c r="C207" t="n">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="D207" t="n">
         <v>32.8</v>
@@ -4593,7 +4593,7 @@
         <v>132</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D208" t="n">
         <v>28</v>
@@ -4613,7 +4613,7 @@
         <v>173</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D209" t="n">
         <v>36.8</v>
@@ -4633,7 +4633,7 @@
         <v>169</v>
       </c>
       <c r="C210" t="n">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D210" t="n">
         <v>29.9</v>
@@ -4653,7 +4653,7 @@
         <v>126</v>
       </c>
       <c r="C211" t="n">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D211" t="n">
         <v>29.6</v>
@@ -4673,7 +4673,7 @@
         <v>102</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D212" t="n">
         <v>25.1</v>
@@ -4693,7 +4693,7 @@
         <v>107</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D213" t="n">
         <v>26.4</v>
@@ -4713,7 +4713,7 @@
         <v>137</v>
       </c>
       <c r="C214" t="n">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="D214" t="n">
         <v>24.8</v>
@@ -4733,7 +4733,7 @@
         <v>80</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D215" t="n">
         <v>26.2</v>
@@ -4753,7 +4753,7 @@
         <v>119</v>
       </c>
       <c r="C216" t="n">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="D216" t="n">
         <v>45.3</v>
@@ -4773,7 +4773,7 @@
         <v>146</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D217" t="n">
         <v>29.7</v>
@@ -4790,10 +4790,10 @@
         <v>5</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D218" t="n">
         <v>41</v>
@@ -4813,13 +4813,13 @@
         <v>118</v>
       </c>
       <c r="C219" t="n">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="E219" t="n">
-        <v>1.731</v>
+        <v>1.2</v>
       </c>
       <c r="F219" t="n">
         <v>21</v>
@@ -4833,7 +4833,7 @@
         <v>188</v>
       </c>
       <c r="C220" t="n">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="D220" t="n">
         <v>32</v>
@@ -4853,7 +4853,7 @@
         <v>141</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D221" t="n">
         <v>30</v>
@@ -4873,7 +4873,7 @@
         <v>158</v>
       </c>
       <c r="C222" t="n">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="D222" t="n">
         <v>39.4</v>
@@ -4893,7 +4893,7 @@
         <v>93</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D223" t="n">
         <v>30.4</v>
@@ -4913,7 +4913,7 @@
         <v>157</v>
       </c>
       <c r="C224" t="n">
-        <v>440</v>
+        <v>74</v>
       </c>
       <c r="D224" t="n">
         <v>39.4</v>
@@ -4933,7 +4933,7 @@
         <v>144</v>
       </c>
       <c r="C225" t="n">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="D225" t="n">
         <v>29.5</v>
@@ -4953,7 +4953,7 @@
         <v>105</v>
       </c>
       <c r="C226" t="n">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="D226" t="n">
         <v>41.5</v>
@@ -4973,7 +4973,7 @@
         <v>133</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D227" t="n">
         <v>27</v>
@@ -4993,7 +4993,7 @@
         <v>115</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D228" t="n">
         <v>33.7</v>
@@ -5013,13 +5013,13 @@
         <v>163</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D229" t="n">
         <v>39</v>
       </c>
       <c r="E229" t="n">
-        <v>1.222</v>
+        <v>1.2</v>
       </c>
       <c r="F229" t="n">
         <v>33</v>
@@ -5033,13 +5033,13 @@
         <v>180</v>
       </c>
       <c r="C230" t="n">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D230" t="n">
-        <v>59.4</v>
+        <v>50.55</v>
       </c>
       <c r="E230" t="n">
-        <v>2.42</v>
+        <v>1.2</v>
       </c>
       <c r="F230" t="n">
         <v>25</v>
@@ -5053,7 +5053,7 @@
         <v>144</v>
       </c>
       <c r="C231" t="n">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="D231" t="n">
         <v>46.1</v>
@@ -5073,7 +5073,7 @@
         <v>141</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D232" t="n">
         <v>32.4</v>
@@ -5093,7 +5093,7 @@
         <v>115</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D233" t="n">
         <v>30.8</v>
@@ -5113,7 +5113,7 @@
         <v>130</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D234" t="n">
         <v>39.1</v>
@@ -5133,7 +5133,7 @@
         <v>150</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D235" t="n">
         <v>21</v>
@@ -5153,7 +5153,7 @@
         <v>82</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D236" t="n">
         <v>21.1</v>
@@ -5173,7 +5173,7 @@
         <v>117</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D237" t="n">
         <v>29.7</v>
@@ -5193,7 +5193,7 @@
         <v>102</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D238" t="n">
         <v>39.5</v>
@@ -5213,7 +5213,7 @@
         <v>90</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D239" t="n">
         <v>27.3</v>
@@ -5233,7 +5233,7 @@
         <v>113</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D240" t="n">
         <v>33.3</v>
@@ -5253,7 +5253,7 @@
         <v>174</v>
       </c>
       <c r="C241" t="n">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="D241" t="n">
         <v>32.9</v>
@@ -5273,7 +5273,7 @@
         <v>154</v>
       </c>
       <c r="C242" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D242" t="n">
         <v>30.9</v>
@@ -5293,7 +5293,7 @@
         <v>194</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D243" t="n">
         <v>35.9</v>
@@ -5313,7 +5313,7 @@
         <v>91</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D244" t="n">
         <v>35.6</v>
@@ -5322,7 +5322,7 @@
         <v>0.587</v>
       </c>
       <c r="F244" t="n">
-        <v>68</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="245">
@@ -5333,7 +5333,7 @@
         <v>166</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D245" t="n">
         <v>26.6</v>
@@ -5353,7 +5353,7 @@
         <v>140</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D246" t="n">
         <v>37.4</v>
@@ -5373,7 +5373,7 @@
         <v>123</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D247" t="n">
         <v>36.3</v>
@@ -5393,7 +5393,7 @@
         <v>119</v>
       </c>
       <c r="C248" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D248" t="n">
         <v>35.5</v>
@@ -5413,7 +5413,7 @@
         <v>112</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D249" t="n">
         <v>31.6</v>
@@ -5433,7 +5433,7 @@
         <v>90</v>
       </c>
       <c r="C250" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D250" t="n">
         <v>27.2</v>
@@ -5453,7 +5453,7 @@
         <v>93</v>
       </c>
       <c r="C251" t="n">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="D251" t="n">
         <v>38</v>
@@ -5473,7 +5473,7 @@
         <v>108</v>
       </c>
       <c r="C252" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D252" t="n">
         <v>32.5</v>
@@ -5493,7 +5493,7 @@
         <v>111</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D253" t="n">
         <v>32.8</v>
@@ -5513,7 +5513,7 @@
         <v>106</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D254" t="n">
         <v>39.5</v>
@@ -5533,7 +5533,7 @@
         <v>193</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D255" t="n">
         <v>34.9</v>
@@ -5553,7 +5553,7 @@
         <v>125</v>
       </c>
       <c r="C256" t="n">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="D256" t="n">
         <v>28.9</v>
@@ -5573,7 +5573,7 @@
         <v>129</v>
       </c>
       <c r="C257" t="n">
-        <v>231</v>
+        <v>60</v>
       </c>
       <c r="D257" t="n">
         <v>27.5</v>
@@ -5593,7 +5593,7 @@
         <v>115</v>
       </c>
       <c r="C258" t="n">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D258" t="n">
         <v>34.6</v>
@@ -5613,7 +5613,7 @@
         <v>87</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D259" t="n">
         <v>28.9</v>
@@ -5633,7 +5633,7 @@
         <v>132</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D260" t="n">
         <v>32.4</v>
@@ -5653,7 +5653,7 @@
         <v>155</v>
       </c>
       <c r="C261" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D261" t="n">
         <v>26.6</v>
@@ -5673,7 +5673,7 @@
         <v>100</v>
       </c>
       <c r="C262" t="n">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="D262" t="n">
         <v>32</v>
@@ -5693,7 +5693,7 @@
         <v>187</v>
       </c>
       <c r="C263" t="n">
-        <v>392</v>
+        <v>50</v>
       </c>
       <c r="D263" t="n">
         <v>33.9</v>
@@ -5713,13 +5713,13 @@
         <v>139</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D264" t="n">
         <v>27.1</v>
       </c>
       <c r="E264" t="n">
-        <v>1.441</v>
+        <v>1.2</v>
       </c>
       <c r="F264" t="n">
         <v>57</v>
@@ -5733,7 +5733,7 @@
         <v>101</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D265" t="n">
         <v>21.9</v>
@@ -5753,7 +5753,7 @@
         <v>197</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D266" t="n">
         <v>25.9</v>
@@ -5773,7 +5773,7 @@
         <v>120</v>
       </c>
       <c r="C267" t="n">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D267" t="n">
         <v>39.7</v>
@@ -5793,7 +5793,7 @@
         <v>90</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D268" t="n">
         <v>42.7</v>
@@ -5813,7 +5813,7 @@
         <v>125</v>
       </c>
       <c r="C269" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="D269" t="n">
         <v>31.1</v>
@@ -5833,7 +5833,7 @@
         <v>108</v>
       </c>
       <c r="C270" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="D270" t="n">
         <v>24</v>
@@ -5853,7 +5853,7 @@
         <v>111</v>
       </c>
       <c r="C271" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D271" t="n">
         <v>28.4</v>
@@ -5873,7 +5873,7 @@
         <v>90</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D272" t="n">
         <v>38.2</v>
@@ -5893,7 +5893,7 @@
         <v>130</v>
       </c>
       <c r="C273" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="D273" t="n">
         <v>28.6</v>
@@ -5913,13 +5913,13 @@
         <v>184</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D274" t="n">
         <v>30</v>
       </c>
       <c r="E274" t="n">
-        <v>1.213</v>
+        <v>1.2</v>
       </c>
       <c r="F274" t="n">
         <v>49</v>
@@ -5927,13 +5927,13 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="B275" t="n">
         <v>100</v>
       </c>
       <c r="C275" t="n">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="D275" t="n">
         <v>36.6</v>
@@ -5953,7 +5953,7 @@
         <v>128</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D276" t="n">
         <v>34.3</v>
@@ -5973,7 +5973,7 @@
         <v>97</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D277" t="n">
         <v>27.2</v>
@@ -5993,7 +5993,7 @@
         <v>116</v>
       </c>
       <c r="C278" t="n">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D278" t="n">
         <v>26.3</v>
@@ -6013,7 +6013,7 @@
         <v>122</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D279" t="n">
         <v>23</v>
@@ -6033,7 +6033,7 @@
         <v>111</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D280" t="n">
         <v>46.8</v>
@@ -6053,7 +6053,7 @@
         <v>188</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D281" t="n">
         <v>47.9</v>
@@ -6073,7 +6073,7 @@
         <v>120</v>
       </c>
       <c r="C282" t="n">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="D282" t="n">
         <v>42.9</v>
@@ -6093,7 +6093,7 @@
         <v>97</v>
       </c>
       <c r="C283" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D283" t="n">
         <v>40.9</v>
@@ -6113,7 +6113,7 @@
         <v>95</v>
       </c>
       <c r="C284" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D284" t="n">
         <v>25.9</v>
@@ -6133,7 +6133,7 @@
         <v>99</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D285" t="n">
         <v>22.2</v>
@@ -6153,7 +6153,7 @@
         <v>119</v>
       </c>
       <c r="C286" t="n">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="D286" t="n">
         <v>45.6</v>
@@ -6173,7 +6173,7 @@
         <v>76</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D287" t="n">
         <v>34</v>
@@ -6193,7 +6193,7 @@
         <v>125</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D288" t="n">
         <v>27.6</v>
@@ -6213,7 +6213,7 @@
         <v>79</v>
       </c>
       <c r="C289" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D289" t="n">
         <v>43.5</v>
@@ -6233,7 +6233,7 @@
         <v>196</v>
       </c>
       <c r="C290" t="n">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="D290" t="n">
         <v>36.5</v>
@@ -6253,7 +6253,7 @@
         <v>82</v>
       </c>
       <c r="C291" t="n">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D291" t="n">
         <v>21.2</v>
@@ -6273,7 +6273,7 @@
         <v>100</v>
       </c>
       <c r="C292" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D292" t="n">
         <v>46.8</v>
@@ -6293,7 +6293,7 @@
         <v>107</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D293" t="n">
         <v>45.3</v>
@@ -6313,7 +6313,7 @@
         <v>119</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D294" t="n">
         <v>25.2</v>
@@ -6333,7 +6333,7 @@
         <v>146</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D295" t="n">
         <v>37.9</v>
@@ -6353,7 +6353,7 @@
         <v>107</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D296" t="n">
         <v>29.6</v>
@@ -6373,7 +6373,7 @@
         <v>130</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D297" t="n">
         <v>34.2</v>
@@ -6393,7 +6393,7 @@
         <v>124</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D298" t="n">
         <v>27.4</v>
@@ -6413,7 +6413,7 @@
         <v>113</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D299" t="n">
         <v>33.6</v>
@@ -6433,7 +6433,7 @@
         <v>125</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D300" t="n">
         <v>37.6</v>
@@ -6453,13 +6453,13 @@
         <v>183</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D301" t="n">
         <v>40.8</v>
       </c>
       <c r="E301" t="n">
-        <v>1.461</v>
+        <v>1.2</v>
       </c>
       <c r="F301" t="n">
         <v>45</v>
@@ -6473,7 +6473,7 @@
         <v>65</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D302" t="n">
         <v>32</v>
@@ -6493,7 +6493,7 @@
         <v>111</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D303" t="n">
         <v>22.6</v>
@@ -6513,7 +6513,7 @@
         <v>146</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D304" t="n">
         <v>31.2</v>
@@ -6533,7 +6533,7 @@
         <v>174</v>
       </c>
       <c r="C305" t="n">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="D305" t="n">
         <v>44.5</v>
@@ -6553,7 +6553,7 @@
         <v>97</v>
       </c>
       <c r="C306" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D306" t="n">
         <v>36.8</v>
@@ -6573,7 +6573,7 @@
         <v>142</v>
       </c>
       <c r="C307" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D307" t="n">
         <v>24.7</v>
@@ -6593,7 +6593,7 @@
         <v>87</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D308" t="n">
         <v>23.2</v>
@@ -6613,7 +6613,7 @@
         <v>144</v>
       </c>
       <c r="C309" t="n">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="D309" t="n">
         <v>31.6</v>
@@ -6633,7 +6633,7 @@
         <v>126</v>
       </c>
       <c r="C310" t="n">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D310" t="n">
         <v>27.4</v>
@@ -6653,7 +6653,7 @@
         <v>121</v>
       </c>
       <c r="C311" t="n">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="D311" t="n">
         <v>34.3</v>
@@ -6673,7 +6673,7 @@
         <v>128</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D312" t="n">
         <v>34.6</v>
@@ -6693,7 +6693,7 @@
         <v>57</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D313" t="n">
         <v>21.7</v>
@@ -6702,7 +6702,7 @@
         <v>0.735</v>
       </c>
       <c r="F313" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="314">
@@ -6713,7 +6713,7 @@
         <v>56</v>
       </c>
       <c r="C314" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D314" t="n">
         <v>24.2</v>
@@ -6733,7 +6733,7 @@
         <v>124</v>
       </c>
       <c r="C315" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D315" t="n">
         <v>33.2</v>
@@ -6753,7 +6753,7 @@
         <v>116</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D316" t="n">
         <v>25.6</v>
@@ -6773,7 +6773,7 @@
         <v>181</v>
       </c>
       <c r="C317" t="n">
-        <v>510</v>
+        <v>88</v>
       </c>
       <c r="D317" t="n">
         <v>43.3</v>
@@ -6793,13 +6793,13 @@
         <v>180</v>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D318" t="n">
         <v>42</v>
       </c>
       <c r="E318" t="n">
-        <v>1.893</v>
+        <v>1.2</v>
       </c>
       <c r="F318" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         <v>154</v>
       </c>
       <c r="C319" t="n">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="D319" t="n">
         <v>29.3</v>
@@ -6833,7 +6833,7 @@
         <v>124</v>
       </c>
       <c r="C320" t="n">
-        <v>600</v>
+        <v>76</v>
       </c>
       <c r="D320" t="n">
         <v>28.7</v>
@@ -6853,7 +6853,7 @@
         <v>134</v>
       </c>
       <c r="C321" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D321" t="n">
         <v>35.4</v>
@@ -6873,7 +6873,7 @@
         <v>118</v>
       </c>
       <c r="C322" t="n">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="D322" t="n">
         <v>45.8</v>
@@ -6893,7 +6893,7 @@
         <v>103</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D323" t="n">
         <v>39.1</v>
@@ -6913,7 +6913,7 @@
         <v>140</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D324" t="n">
         <v>32.7</v>
@@ -6933,7 +6933,7 @@
         <v>110</v>
       </c>
       <c r="C325" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D325" t="n">
         <v>28.4</v>
@@ -6953,7 +6953,7 @@
         <v>89</v>
       </c>
       <c r="C326" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D326" t="n">
         <v>28.1</v>
@@ -6973,13 +6973,13 @@
         <v>92</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D327" t="n">
         <v>24.2</v>
       </c>
       <c r="E327" t="n">
-        <v>1.698</v>
+        <v>1.2</v>
       </c>
       <c r="F327" t="n">
         <v>28</v>
@@ -6993,7 +6993,7 @@
         <v>84</v>
       </c>
       <c r="C328" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D328" t="n">
         <v>39.5</v>
@@ -7013,7 +7013,7 @@
         <v>99</v>
       </c>
       <c r="C329" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D329" t="n">
         <v>19.3</v>
@@ -7033,7 +7033,7 @@
         <v>128</v>
       </c>
       <c r="C330" t="n">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="D330" t="n">
         <v>32.4</v>
@@ -7053,7 +7053,7 @@
         <v>158</v>
       </c>
       <c r="C331" t="n">
-        <v>328</v>
+        <v>70</v>
       </c>
       <c r="D331" t="n">
         <v>35.5</v>
@@ -7073,7 +7073,7 @@
         <v>95</v>
       </c>
       <c r="C332" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D332" t="n">
         <v>36.5</v>
@@ -7093,7 +7093,7 @@
         <v>164</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D333" t="n">
         <v>32.8</v>
@@ -7113,7 +7113,7 @@
         <v>161</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D334" t="n">
         <v>30.4</v>
@@ -7133,7 +7133,7 @@
         <v>92</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D335" t="n">
         <v>31.6</v>
@@ -7153,7 +7153,7 @@
         <v>136</v>
       </c>
       <c r="C336" t="n">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="D336" t="n">
         <v>26</v>
@@ -7173,7 +7173,7 @@
         <v>163</v>
       </c>
       <c r="C337" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D337" t="n">
         <v>31.6</v>
@@ -7193,7 +7193,7 @@
         <v>87</v>
       </c>
       <c r="C338" t="n">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="D338" t="n">
         <v>34.6</v>
@@ -7213,7 +7213,7 @@
         <v>147</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D339" t="n">
         <v>39.4</v>
@@ -7233,7 +7233,7 @@
         <v>92</v>
       </c>
       <c r="C340" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D340" t="n">
         <v>19.5</v>
@@ -7253,7 +7253,7 @@
         <v>142</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D341" t="n">
         <v>32.4</v>
@@ -7273,7 +7273,7 @@
         <v>147</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D342" t="n">
         <v>29.9</v>
@@ -7293,7 +7293,7 @@
         <v>103</v>
       </c>
       <c r="C343" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D343" t="n">
         <v>19.4</v>
@@ -7313,7 +7313,7 @@
         <v>147</v>
       </c>
       <c r="C344" t="n">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="D344" t="n">
         <v>34.9</v>
@@ -7333,7 +7333,7 @@
         <v>117</v>
       </c>
       <c r="C345" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D345" t="n">
         <v>45.2</v>
@@ -7353,7 +7353,7 @@
         <v>102</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D346" t="n">
         <v>32.9</v>
@@ -7373,7 +7373,7 @@
         <v>109</v>
       </c>
       <c r="C347" t="n">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="D347" t="n">
         <v>25.2</v>
@@ -7393,7 +7393,7 @@
         <v>179</v>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D348" t="n">
         <v>44.1</v>
@@ -7413,7 +7413,7 @@
         <v>99</v>
       </c>
       <c r="C349" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="D349" t="n">
         <v>36.6</v>
@@ -7433,7 +7433,7 @@
         <v>122</v>
       </c>
       <c r="C350" t="n">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="D350" t="n">
         <v>36.2</v>
@@ -7453,7 +7453,7 @@
         <v>154</v>
       </c>
       <c r="C351" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="D351" t="n">
         <v>46.1</v>
@@ -7473,13 +7473,13 @@
         <v>173</v>
       </c>
       <c r="C352" t="n">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="D352" t="n">
         <v>38.4</v>
       </c>
       <c r="E352" t="n">
-        <v>2.137</v>
+        <v>1.2</v>
       </c>
       <c r="F352" t="n">
         <v>25</v>
@@ -7493,7 +7493,7 @@
         <v>117</v>
       </c>
       <c r="C353" t="n">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="D353" t="n">
         <v>33.2</v>
@@ -7513,7 +7513,7 @@
         <v>120</v>
       </c>
       <c r="C354" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D354" t="n">
         <v>42.3</v>
@@ -7533,7 +7533,7 @@
         <v>179</v>
       </c>
       <c r="C355" t="n">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D355" t="n">
         <v>32.7</v>
@@ -7553,7 +7553,7 @@
         <v>155</v>
       </c>
       <c r="C356" t="n">
-        <v>540</v>
+        <v>52</v>
       </c>
       <c r="D356" t="n">
         <v>38.7</v>
@@ -7573,7 +7573,7 @@
         <v>118</v>
       </c>
       <c r="C357" t="n">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="D357" t="n">
         <v>33.3</v>
@@ -7593,7 +7593,7 @@
         <v>130</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D358" t="n">
         <v>22.6</v>
@@ -7613,7 +7613,7 @@
         <v>85</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D359" t="n">
         <v>24.4</v>
@@ -7633,7 +7633,7 @@
         <v>120</v>
       </c>
       <c r="C360" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="D360" t="n">
         <v>38.9</v>
@@ -7653,7 +7653,7 @@
         <v>112</v>
       </c>
       <c r="C361" t="n">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="D361" t="n">
         <v>34.8</v>
@@ -7673,7 +7673,7 @@
         <v>94</v>
       </c>
       <c r="C362" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D362" t="n">
         <v>33.3</v>
@@ -7693,7 +7693,7 @@
         <v>109</v>
       </c>
       <c r="C363" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D363" t="n">
         <v>28.5</v>
@@ -7713,7 +7713,7 @@
         <v>114</v>
       </c>
       <c r="C364" t="n">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="D364" t="n">
         <v>38.1</v>
@@ -7733,7 +7733,7 @@
         <v>102</v>
       </c>
       <c r="C365" t="n">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="D365" t="n">
         <v>30.8</v>
@@ -7753,7 +7753,7 @@
         <v>114</v>
       </c>
       <c r="C366" t="n">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="D366" t="n">
         <v>44.2</v>
@@ -7773,7 +7773,7 @@
         <v>114</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D367" t="n">
         <v>27.8</v>
@@ -7793,7 +7793,7 @@
         <v>156</v>
       </c>
       <c r="C368" t="n">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="D368" t="n">
         <v>34.3</v>
@@ -7813,7 +7813,7 @@
         <v>105</v>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D369" t="n">
         <v>29.6</v>
@@ -7833,7 +7833,7 @@
         <v>84</v>
       </c>
       <c r="C370" t="n">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="D370" t="n">
         <v>31.9</v>
@@ -7853,7 +7853,7 @@
         <v>112</v>
       </c>
       <c r="C371" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="D371" t="n">
         <v>39.4</v>
@@ -7873,7 +7873,7 @@
         <v>155</v>
       </c>
       <c r="C372" t="n">
-        <v>495</v>
+        <v>62</v>
       </c>
       <c r="D372" t="n">
         <v>34</v>
@@ -7893,7 +7893,7 @@
         <v>101</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D373" t="n">
         <v>35.7</v>
@@ -7913,7 +7913,7 @@
         <v>90</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D374" t="n">
         <v>34.9</v>
@@ -7933,7 +7933,7 @@
         <v>81</v>
       </c>
       <c r="C375" t="n">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D375" t="n">
         <v>26.6</v>
@@ -7953,7 +7953,7 @@
         <v>94</v>
       </c>
       <c r="C376" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D376" t="n">
         <v>26</v>
@@ -7973,7 +7973,7 @@
         <v>129</v>
       </c>
       <c r="C377" t="n">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D377" t="n">
         <v>26.4</v>
@@ -7993,7 +7993,7 @@
         <v>99</v>
       </c>
       <c r="C378" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D378" t="n">
         <v>23.2</v>
@@ -8013,7 +8013,7 @@
         <v>176</v>
       </c>
       <c r="C379" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="D379" t="n">
         <v>33.7</v>
@@ -8033,7 +8033,7 @@
         <v>114</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D380" t="n">
         <v>21.9</v>
@@ -8053,7 +8053,7 @@
         <v>72</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D381" t="n">
         <v>31.6</v>
@@ -8073,7 +8073,7 @@
         <v>117</v>
       </c>
       <c r="C382" t="n">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D382" t="n">
         <v>39.1</v>
@@ -8093,7 +8093,7 @@
         <v>162</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D383" t="n">
         <v>37.7</v>
@@ -8113,7 +8113,7 @@
         <v>91</v>
       </c>
       <c r="C384" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="D384" t="n">
         <v>25.2</v>
@@ -8133,7 +8133,7 @@
         <v>89</v>
       </c>
       <c r="C385" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D385" t="n">
         <v>27.8</v>
@@ -8153,7 +8153,7 @@
         <v>197</v>
       </c>
       <c r="C386" t="n">
-        <v>543</v>
+        <v>70</v>
       </c>
       <c r="D386" t="n">
         <v>30.5</v>
@@ -8173,7 +8173,7 @@
         <v>90</v>
       </c>
       <c r="C387" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D387" t="n">
         <v>37.7</v>
@@ -8193,7 +8193,7 @@
         <v>138</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D388" t="n">
         <v>33.2</v>
@@ -8213,7 +8213,7 @@
         <v>91</v>
       </c>
       <c r="C389" t="n">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="D389" t="n">
         <v>39.9</v>
@@ -8233,7 +8233,7 @@
         <v>86</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D390" t="n">
         <v>35.8</v>
@@ -8253,10 +8253,10 @@
         <v>115</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D391" t="n">
-        <v>52.9</v>
+        <v>50.55</v>
       </c>
       <c r="E391" t="n">
         <v>0.209</v>
@@ -8273,7 +8273,7 @@
         <v>93</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D392" t="n">
         <v>22.5</v>
@@ -8293,7 +8293,7 @@
         <v>103</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D393" t="n">
         <v>46.2</v>
@@ -8313,7 +8313,7 @@
         <v>116</v>
       </c>
       <c r="C394" t="n">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="D394" t="n">
         <v>36.1</v>
@@ -8333,7 +8333,7 @@
         <v>95</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D395" t="n">
         <v>32.1</v>
@@ -8353,7 +8353,7 @@
         <v>126</v>
       </c>
       <c r="C396" t="n">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="D396" t="n">
         <v>30.7</v>
@@ -8373,7 +8373,7 @@
         <v>138</v>
       </c>
       <c r="C397" t="n">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="D397" t="n">
         <v>34.6</v>
@@ -8393,7 +8393,7 @@
         <v>136</v>
       </c>
       <c r="C398" t="n">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="D398" t="n">
         <v>37.4</v>
@@ -8413,7 +8413,7 @@
         <v>105</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D399" t="n">
         <v>32.5</v>
@@ -8433,16 +8433,16 @@
         <v>136</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D400" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="E400" t="n">
         <v>0.64</v>
       </c>
       <c r="F400" t="n">
-        <v>69</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="401">
@@ -8453,7 +8453,7 @@
         <v>116</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D401" t="n">
         <v>27.4</v>
@@ -8473,7 +8473,7 @@
         <v>99</v>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D402" t="n">
         <v>25.6</v>
@@ -8493,13 +8493,13 @@
         <v>106</v>
       </c>
       <c r="C403" t="n">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D403" t="n">
         <v>30.5</v>
       </c>
       <c r="E403" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F403" t="n">
         <v>34</v>
@@ -8513,7 +8513,7 @@
         <v>57</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D404" t="n">
         <v>32.8</v>
@@ -8533,7 +8533,7 @@
         <v>92</v>
       </c>
       <c r="C405" t="n">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="D405" t="n">
         <v>32</v>
@@ -8553,7 +8553,7 @@
         <v>129</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D406" t="n">
         <v>41.2</v>
@@ -8573,7 +8573,7 @@
         <v>151</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D407" t="n">
         <v>42.1</v>
@@ -8593,7 +8593,7 @@
         <v>99</v>
       </c>
       <c r="C408" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D408" t="n">
         <v>21.8</v>
@@ -8613,7 +8613,7 @@
         <v>88</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D409" t="n">
         <v>27.6</v>
@@ -8633,7 +8633,7 @@
         <v>157</v>
       </c>
       <c r="C410" t="n">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="D410" t="n">
         <v>25.6</v>
@@ -8653,7 +8653,7 @@
         <v>181</v>
       </c>
       <c r="C411" t="n">
-        <v>495</v>
+        <v>68</v>
       </c>
       <c r="D411" t="n">
         <v>30.1</v>
@@ -8673,7 +8673,7 @@
         <v>132</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D412" t="n">
         <v>26.8</v>
@@ -8682,7 +8682,7 @@
         <v>0.186</v>
       </c>
       <c r="F412" t="n">
-        <v>69</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="413">
@@ -8693,7 +8693,7 @@
         <v>101</v>
       </c>
       <c r="C413" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D413" t="n">
         <v>21.8</v>
@@ -8713,7 +8713,7 @@
         <v>108</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D414" t="n">
         <v>32.4</v>
@@ -8733,7 +8733,7 @@
         <v>106</v>
       </c>
       <c r="C415" t="n">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="D415" t="n">
         <v>29</v>
@@ -8753,7 +8753,7 @@
         <v>107</v>
       </c>
       <c r="C416" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D416" t="n">
         <v>22.9</v>
@@ -8773,7 +8773,7 @@
         <v>108</v>
       </c>
       <c r="C417" t="n">
-        <v>278</v>
+        <v>62</v>
       </c>
       <c r="D417" t="n">
         <v>25.3</v>
@@ -8793,7 +8793,7 @@
         <v>128</v>
       </c>
       <c r="C418" t="n">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="D418" t="n">
         <v>40.5</v>
@@ -8813,7 +8813,7 @@
         <v>95</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D419" t="n">
         <v>32</v>
@@ -8833,7 +8833,7 @@
         <v>107</v>
       </c>
       <c r="C420" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D420" t="n">
         <v>33.6</v>
@@ -8853,7 +8853,7 @@
         <v>73</v>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D421" t="n">
         <v>26.8</v>
@@ -8873,7 +8873,7 @@
         <v>108</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D422" t="n">
         <v>27.3</v>
@@ -8893,7 +8893,7 @@
         <v>97</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D423" t="n">
         <v>18.2</v>
@@ -8913,7 +8913,7 @@
         <v>122</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D424" t="n">
         <v>31.2</v>
@@ -8933,7 +8933,7 @@
         <v>173</v>
       </c>
       <c r="C425" t="n">
-        <v>474</v>
+        <v>84</v>
       </c>
       <c r="D425" t="n">
         <v>35.7</v>
@@ -8953,7 +8953,7 @@
         <v>125</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D426" t="n">
         <v>32.3</v>
@@ -8973,7 +8973,7 @@
         <v>105</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D427" t="n">
         <v>27.9</v>
@@ -8993,7 +8993,7 @@
         <v>136</v>
       </c>
       <c r="C428" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D428" t="n">
         <v>35</v>
@@ -9013,7 +9013,7 @@
         <v>111</v>
       </c>
       <c r="C429" t="n">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="D429" t="n">
         <v>24</v>
@@ -9033,7 +9033,7 @@
         <v>96</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D430" t="n">
         <v>23.7</v>
@@ -9053,7 +9053,7 @@
         <v>99</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D431" t="n">
         <v>25</v>
@@ -9073,7 +9073,7 @@
         <v>112</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D432" t="n">
         <v>37.8</v>
@@ -9093,7 +9093,7 @@
         <v>130</v>
       </c>
       <c r="C433" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D433" t="n">
         <v>28.4</v>
@@ -9113,7 +9113,7 @@
         <v>176</v>
       </c>
       <c r="C434" t="n">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="D434" t="n">
         <v>33.3</v>
@@ -9133,7 +9133,7 @@
         <v>168</v>
       </c>
       <c r="C435" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D435" t="n">
         <v>35</v>
@@ -9153,7 +9153,7 @@
         <v>67</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D436" t="n">
         <v>45.3</v>
@@ -9173,7 +9173,7 @@
         <v>116</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D437" t="n">
         <v>32.3</v>
@@ -9193,7 +9193,7 @@
         <v>153</v>
       </c>
       <c r="C438" t="n">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="D438" t="n">
         <v>40.6</v>
@@ -9213,7 +9213,7 @@
         <v>120</v>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D439" t="n">
         <v>25</v>
@@ -9233,7 +9233,7 @@
         <v>128</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D440" t="n">
         <v>40</v>
@@ -9253,7 +9253,7 @@
         <v>92</v>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D441" t="n">
         <v>25.9</v>
@@ -9273,7 +9273,7 @@
         <v>83</v>
       </c>
       <c r="C442" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D442" t="n">
         <v>32.2</v>
@@ -9293,7 +9293,7 @@
         <v>110</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D443" t="n">
         <v>26</v>
@@ -9313,7 +9313,7 @@
         <v>89</v>
       </c>
       <c r="C444" t="n">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D444" t="n">
         <v>31.2</v>
@@ -9333,7 +9333,7 @@
         <v>79</v>
       </c>
       <c r="C445" t="n">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D445" t="n">
         <v>25.4</v>
@@ -9353,7 +9353,7 @@
         <v>165</v>
       </c>
       <c r="C446" t="n">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="D446" t="n">
         <v>33.6</v>
@@ -9373,7 +9373,7 @@
         <v>105</v>
       </c>
       <c r="C447" t="n">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="D447" t="n">
         <v>34.9</v>
@@ -9393,7 +9393,7 @@
         <v>122</v>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D448" t="n">
         <v>35</v>
@@ -9413,7 +9413,7 @@
         <v>106</v>
       </c>
       <c r="C449" t="n">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="D449" t="n">
         <v>30.9</v>
@@ -9433,7 +9433,7 @@
         <v>182</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D450" t="n">
         <v>30.5</v>
@@ -9453,7 +9453,7 @@
         <v>102</v>
       </c>
       <c r="C451" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D451" t="n">
         <v>35.7</v>
@@ -9473,7 +9473,7 @@
         <v>140</v>
       </c>
       <c r="C452" t="n">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="D452" t="n">
         <v>24.1</v>
@@ -9493,7 +9493,7 @@
         <v>88</v>
       </c>
       <c r="C453" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D453" t="n">
         <v>35.3</v>
@@ -9513,7 +9513,7 @@
         <v>193</v>
       </c>
       <c r="C454" t="n">
-        <v>375</v>
+        <v>50</v>
       </c>
       <c r="D454" t="n">
         <v>25.9</v>
@@ -9533,7 +9533,7 @@
         <v>133</v>
       </c>
       <c r="C455" t="n">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="D455" t="n">
         <v>32.4</v>
@@ -9553,7 +9553,7 @@
         <v>98</v>
       </c>
       <c r="C456" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D456" t="n">
         <v>25.2</v>
@@ -9573,7 +9573,7 @@
         <v>125</v>
       </c>
       <c r="C457" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D457" t="n">
         <v>24.3</v>
@@ -9593,7 +9593,7 @@
         <v>100</v>
       </c>
       <c r="C458" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D458" t="n">
         <v>23.6</v>
@@ -9613,7 +9613,7 @@
         <v>92</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D459" t="n">
         <v>30.1</v>
@@ -9633,7 +9633,7 @@
         <v>114</v>
       </c>
       <c r="C460" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D460" t="n">
         <v>27.4</v>
@@ -9653,7 +9653,7 @@
         <v>119</v>
       </c>
       <c r="C461" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D461" t="n">
         <v>38.8</v>
@@ -9673,7 +9673,7 @@
         <v>116</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D462" t="n">
         <v>23.5</v>
@@ -9693,7 +9693,7 @@
         <v>75</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D463" t="n">
         <v>33.3</v>
@@ -9713,7 +9713,7 @@
         <v>137</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D464" t="n">
         <v>32</v>
@@ -9733,7 +9733,7 @@
         <v>158</v>
       </c>
       <c r="C465" t="n">
-        <v>387</v>
+        <v>64</v>
       </c>
       <c r="D465" t="n">
         <v>31.2</v>
@@ -9753,7 +9753,7 @@
         <v>129</v>
       </c>
       <c r="C466" t="n">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D466" t="n">
         <v>38.5</v>
@@ -9773,7 +9773,7 @@
         <v>127</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D467" t="n">
         <v>39</v>
@@ -9793,7 +9793,7 @@
         <v>117</v>
       </c>
       <c r="C468" t="n">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="D468" t="n">
         <v>33.8</v>
@@ -9813,7 +9813,7 @@
         <v>97</v>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D469" t="n">
         <v>38.1</v>
@@ -9833,7 +9833,7 @@
         <v>118</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D470" t="n">
         <v>42.9</v>
@@ -9853,7 +9853,7 @@
         <v>110</v>
       </c>
       <c r="C471" t="n">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D471" t="n">
         <v>32.4</v>
@@ -9873,7 +9873,7 @@
         <v>139</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D472" t="n">
         <v>25.6</v>
@@ -9887,13 +9887,13 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="B473" t="n">
         <v>163</v>
       </c>
       <c r="C473" t="n">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D473" t="n">
         <v>40.9</v>
@@ -9913,7 +9913,7 @@
         <v>125</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D474" t="n">
         <v>31.6</v>
@@ -9933,7 +9933,7 @@
         <v>103</v>
       </c>
       <c r="C475" t="n">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="D475" t="n">
         <v>24</v>
@@ -9953,7 +9953,7 @@
         <v>100</v>
       </c>
       <c r="C476" t="n">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="D476" t="n">
         <v>39.4</v>
@@ -9973,7 +9973,7 @@
         <v>102</v>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D477" t="n">
         <v>30.8</v>
@@ -9993,7 +9993,7 @@
         <v>162</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D478" t="n">
         <v>27.7</v>
@@ -10013,7 +10013,7 @@
         <v>123</v>
       </c>
       <c r="C479" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D479" t="n">
         <v>34.1</v>
@@ -10033,7 +10033,7 @@
         <v>149</v>
       </c>
       <c r="C480" t="n">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="D480" t="n">
         <v>29.3</v>
@@ -10053,7 +10053,7 @@
         <v>144</v>
       </c>
       <c r="C481" t="n">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="D481" t="n">
         <v>33.9</v>
@@ -10073,7 +10073,7 @@
         <v>99</v>
       </c>
       <c r="C482" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D482" t="n">
         <v>26.9</v>
@@ -10093,7 +10093,7 @@
         <v>91</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D483" t="n">
         <v>29.2</v>
@@ -10113,7 +10113,7 @@
         <v>143</v>
       </c>
       <c r="C484" t="n">
-        <v>330</v>
+        <v>86</v>
       </c>
       <c r="D484" t="n">
         <v>30.1</v>
@@ -10133,7 +10133,7 @@
         <v>120</v>
       </c>
       <c r="C485" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D485" t="n">
         <v>20.8</v>
@@ -10153,7 +10153,7 @@
         <v>88</v>
       </c>
       <c r="C486" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D486" t="n">
         <v>29.9</v>
@@ -10173,7 +10173,7 @@
         <v>156</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D487" t="n">
         <v>24.8</v>
@@ -10193,7 +10193,7 @@
         <v>196</v>
       </c>
       <c r="C488" t="n">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="D488" t="n">
         <v>37.5</v>
@@ -10213,7 +10213,7 @@
         <v>131</v>
       </c>
       <c r="C489" t="n">
-        <v>415</v>
+        <v>64</v>
       </c>
       <c r="D489" t="n">
         <v>23.7</v>
@@ -10233,7 +10233,7 @@
         <v>131</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D490" t="n">
         <v>34.3</v>
@@ -10253,7 +10253,7 @@
         <v>120</v>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D491" t="n">
         <v>26.8</v>
@@ -10273,7 +10273,7 @@
         <v>125</v>
       </c>
       <c r="C492" t="n">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D492" t="n">
         <v>30</v>
@@ -10293,13 +10293,13 @@
         <v>137</v>
       </c>
       <c r="C493" t="n">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="D493" t="n">
         <v>43.1</v>
       </c>
       <c r="E493" t="n">
-        <v>2.288</v>
+        <v>1.2</v>
       </c>
       <c r="F493" t="n">
         <v>33</v>
@@ -10313,7 +10313,7 @@
         <v>147</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D494" t="n">
         <v>29.5</v>
@@ -10333,7 +10333,7 @@
         <v>107</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D495" t="n">
         <v>28.3</v>
@@ -10353,7 +10353,7 @@
         <v>168</v>
       </c>
       <c r="C496" t="n">
-        <v>321</v>
+        <v>88</v>
       </c>
       <c r="D496" t="n">
         <v>38.2</v>
@@ -10373,7 +10373,7 @@
         <v>187</v>
       </c>
       <c r="C497" t="n">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="D497" t="n">
         <v>43.6</v>
@@ -10393,7 +10393,7 @@
         <v>93</v>
       </c>
       <c r="C498" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D498" t="n">
         <v>28.7</v>
@@ -10413,7 +10413,7 @@
         <v>98</v>
       </c>
       <c r="C499" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D499" t="n">
         <v>34.7</v>
@@ -10433,7 +10433,7 @@
         <v>115</v>
       </c>
       <c r="C500" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D500" t="n">
         <v>28.9</v>
@@ -10450,10 +10450,10 @@
         <v>6</v>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D501" t="n">
         <v>39</v>
@@ -10473,7 +10473,7 @@
         <v>71</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D502" t="n">
         <v>28</v>
@@ -10493,7 +10493,7 @@
         <v>88</v>
       </c>
       <c r="C503" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D503" t="n">
         <v>24.8</v>
@@ -10513,7 +10513,7 @@
         <v>113</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D504" t="n">
         <v>31</v>
@@ -10533,7 +10533,7 @@
         <v>96</v>
       </c>
       <c r="C505" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D505" t="n">
         <v>21.1</v>
@@ -10553,7 +10553,7 @@
         <v>97</v>
       </c>
       <c r="C506" t="n">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="D506" t="n">
         <v>23.2</v>
@@ -10573,7 +10573,7 @@
         <v>121</v>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D507" t="n">
         <v>36</v>
@@ -10593,7 +10593,7 @@
         <v>142</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D508" t="n">
         <v>44</v>
@@ -10613,7 +10613,7 @@
         <v>194</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D509" t="n">
         <v>26.1</v>
@@ -10622,7 +10622,7 @@
         <v>0.551</v>
       </c>
       <c r="F509" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="510">
@@ -10633,7 +10633,7 @@
         <v>156</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D510" t="n">
         <v>48.3</v>
@@ -10653,7 +10653,7 @@
         <v>96</v>
       </c>
       <c r="C511" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D511" t="n">
         <v>20.8</v>
@@ -10673,7 +10673,7 @@
         <v>83</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D512" t="n">
         <v>18.2</v>
@@ -10693,7 +10693,7 @@
         <v>166</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D513" t="n">
         <v>45.7</v>
@@ -10713,7 +10713,7 @@
         <v>132</v>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D514" t="n">
         <v>34.4</v>
@@ -10733,7 +10733,7 @@
         <v>195</v>
       </c>
       <c r="C515" t="n">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="D515" t="n">
         <v>25.1</v>
@@ -10753,7 +10753,7 @@
         <v>129</v>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D516" t="n">
         <v>31.2</v>
@@ -10773,7 +10773,7 @@
         <v>44</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D517" t="n">
         <v>25</v>
@@ -10793,7 +10793,7 @@
         <v>137</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D518" t="n">
         <v>33.2</v>
@@ -10813,7 +10813,7 @@
         <v>179</v>
       </c>
       <c r="C519" t="n">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="D519" t="n">
         <v>37.8</v>
@@ -10833,7 +10833,7 @@
         <v>117</v>
       </c>
       <c r="C520" t="n">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="D520" t="n">
         <v>34.5</v>
@@ -10853,7 +10853,7 @@
         <v>81</v>
       </c>
       <c r="C521" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D521" t="n">
         <v>46.3</v>
@@ -10873,7 +10873,7 @@
         <v>68</v>
       </c>
       <c r="C522" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D522" t="n">
         <v>25</v>
@@ -10893,7 +10893,7 @@
         <v>114</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D523" t="n">
         <v>32.8</v>
@@ -10913,7 +10913,7 @@
         <v>166</v>
       </c>
       <c r="C524" t="n">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="D524" t="n">
         <v>25.8</v>
@@ -10933,7 +10933,7 @@
         <v>99</v>
       </c>
       <c r="C525" t="n">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D525" t="n">
         <v>24.6</v>
@@ -10953,7 +10953,7 @@
         <v>180</v>
       </c>
       <c r="C526" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D526" t="n">
         <v>34</v>
@@ -10973,7 +10973,7 @@
         <v>99</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D527" t="n">
         <v>32.8</v>
@@ -10993,7 +10993,7 @@
         <v>93</v>
       </c>
       <c r="C528" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D528" t="n">
         <v>43.4</v>
@@ -11013,13 +11013,13 @@
         <v>128</v>
       </c>
       <c r="C529" t="n">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D529" t="n">
         <v>32</v>
       </c>
       <c r="E529" t="n">
-        <v>1.321</v>
+        <v>1.2</v>
       </c>
       <c r="F529" t="n">
         <v>33</v>
@@ -11033,7 +11033,7 @@
         <v>109</v>
       </c>
       <c r="C530" t="n">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="D530" t="n">
         <v>35.8</v>
@@ -11053,7 +11053,7 @@
         <v>88</v>
       </c>
       <c r="C531" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D531" t="n">
         <v>24.4</v>
@@ -11073,7 +11073,7 @@
         <v>115</v>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D532" t="n">
         <v>31.2</v>
@@ -11093,7 +11093,7 @@
         <v>151</v>
       </c>
       <c r="C533" t="n">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="D533" t="n">
         <v>35.5</v>
@@ -11113,7 +11113,7 @@
         <v>129</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D534" t="n">
         <v>28</v>
@@ -11133,7 +11133,7 @@
         <v>71</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D535" t="n">
         <v>21.8</v>
@@ -11147,13 +11147,13 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="B536" t="n">
         <v>175</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D536" t="n">
         <v>33.6</v>
@@ -11173,7 +11173,7 @@
         <v>121</v>
       </c>
       <c r="C537" t="n">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D537" t="n">
         <v>26.2</v>
@@ -11193,7 +11193,7 @@
         <v>146</v>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D538" t="n">
         <v>27.5</v>
@@ -11213,7 +11213,7 @@
         <v>138</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D539" t="n">
         <v>40.1</v>
@@ -11233,7 +11233,7 @@
         <v>102</v>
       </c>
       <c r="C540" t="n">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D540" t="n">
         <v>37.2</v>
@@ -11253,7 +11253,7 @@
         <v>124</v>
       </c>
       <c r="C541" t="n">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="D541" t="n">
         <v>25.5</v>
@@ -11273,7 +11273,7 @@
         <v>137</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D542" t="n">
         <v>24.2</v>
@@ -11293,7 +11293,7 @@
         <v>105</v>
       </c>
       <c r="C543" t="n">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="D543" t="n">
         <v>33.7</v>
@@ -11313,7 +11313,7 @@
         <v>126</v>
       </c>
       <c r="C544" t="n">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="D544" t="n">
         <v>28.7</v>
@@ -11333,7 +11333,7 @@
         <v>95</v>
       </c>
       <c r="C545" t="n">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D545" t="n">
         <v>26.1</v>
@@ -11353,7 +11353,7 @@
         <v>100</v>
       </c>
       <c r="C546" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D546" t="n">
         <v>31.6</v>
@@ -11373,7 +11373,7 @@
         <v>85</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D547" t="n">
         <v>26.6</v>
@@ -11393,7 +11393,7 @@
         <v>94</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D548" t="n">
         <v>23.1</v>
@@ -11413,7 +11413,7 @@
         <v>198</v>
       </c>
       <c r="C549" t="n">
-        <v>274</v>
+        <v>66</v>
       </c>
       <c r="D549" t="n">
         <v>41.3</v>
@@ -11433,7 +11433,7 @@
         <v>113</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D550" t="n">
         <v>22.4</v>
@@ -11453,7 +11453,7 @@
         <v>111</v>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D551" t="n">
         <v>23.9</v>
@@ -11473,7 +11473,7 @@
         <v>122</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D552" t="n">
         <v>27.6</v>
@@ -11493,7 +11493,7 @@
         <v>84</v>
       </c>
       <c r="C553" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D553" t="n">
         <v>30.4</v>
@@ -11513,7 +11513,7 @@
         <v>181</v>
       </c>
       <c r="C554" t="n">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="D554" t="n">
         <v>34.1</v>
@@ -11533,7 +11533,7 @@
         <v>100</v>
       </c>
       <c r="C555" t="n">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="D555" t="n">
         <v>37.8</v>
@@ -11553,7 +11553,7 @@
         <v>124</v>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D556" t="n">
         <v>27.6</v>
@@ -11573,7 +11573,7 @@
         <v>123</v>
       </c>
       <c r="C557" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="D557" t="n">
         <v>32</v>
@@ -11593,7 +11593,7 @@
         <v>178</v>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D558" t="n">
         <v>39.9</v>
@@ -11613,7 +11613,7 @@
         <v>91</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D559" t="n">
         <v>32.4</v>
@@ -11633,7 +11633,7 @@
         <v>126</v>
       </c>
       <c r="C560" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D560" t="n">
         <v>38.5</v>
@@ -11653,7 +11653,7 @@
         <v>91</v>
       </c>
       <c r="C561" t="n">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D561" t="n">
         <v>33.1</v>
@@ -11673,7 +11673,7 @@
         <v>189</v>
       </c>
       <c r="C562" t="n">
-        <v>846</v>
+        <v>60</v>
       </c>
       <c r="D562" t="n">
         <v>30.1</v>
@@ -11693,7 +11693,7 @@
         <v>112</v>
       </c>
       <c r="C563" t="n">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D563" t="n">
         <v>34.1</v>
@@ -11713,7 +11713,7 @@
         <v>108</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D564" t="n">
         <v>27.1</v>
@@ -11733,7 +11733,7 @@
         <v>105</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D565" t="n">
         <v>43.3</v>
@@ -11753,7 +11753,7 @@
         <v>71</v>
       </c>
       <c r="C566" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D566" t="n">
         <v>33.2</v>
@@ -11773,7 +11773,7 @@
         <v>148</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D567" t="n">
         <v>32.5</v>
@@ -11793,7 +11793,7 @@
         <v>170</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D568" t="n">
         <v>44</v>
@@ -11813,7 +11813,7 @@
         <v>167</v>
       </c>
       <c r="C569" t="n">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="D569" t="n">
         <v>23.4</v>
@@ -11833,7 +11833,7 @@
         <v>145</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D570" t="n">
         <v>44.2</v>
@@ -11853,7 +11853,7 @@
         <v>136</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D571" t="n">
         <v>31.2</v>
@@ -11873,7 +11873,7 @@
         <v>96</v>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D572" t="n">
         <v>37.3</v>
@@ -11893,13 +11893,13 @@
         <v>119</v>
       </c>
       <c r="C573" t="n">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="D573" t="n">
         <v>27.1</v>
       </c>
       <c r="E573" t="n">
-        <v>1.318</v>
+        <v>1.2</v>
       </c>
       <c r="F573" t="n">
         <v>33</v>
@@ -11913,7 +11913,7 @@
         <v>99</v>
       </c>
       <c r="C574" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D574" t="n">
         <v>38.6</v>
@@ -11933,7 +11933,7 @@
         <v>87</v>
       </c>
       <c r="C575" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D575" t="n">
         <v>37.6</v>
@@ -11953,7 +11953,7 @@
         <v>130</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D576" t="n">
         <v>23.1</v>
@@ -11973,7 +11973,7 @@
         <v>139</v>
       </c>
       <c r="C577" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D577" t="n">
         <v>31.6</v>
@@ -11993,7 +11993,7 @@
         <v>118</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D578" t="n">
         <v>44.5</v>
@@ -12013,7 +12013,7 @@
         <v>137</v>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D579" t="n">
         <v>27.3</v>
@@ -12033,7 +12033,7 @@
         <v>162</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D580" t="n">
         <v>49.6</v>
@@ -12053,7 +12053,7 @@
         <v>84</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D581" t="n">
         <v>29.7</v>
@@ -12073,13 +12073,13 @@
         <v>146</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D582" t="n">
         <v>40.5</v>
       </c>
       <c r="E582" t="n">
-        <v>1.781</v>
+        <v>1.2</v>
       </c>
       <c r="F582" t="n">
         <v>44</v>
@@ -12093,7 +12093,7 @@
         <v>114</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D583" t="n">
         <v>28.9</v>
@@ -12113,7 +12113,7 @@
         <v>125</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D584" t="n">
         <v>33.8</v>
@@ -12133,7 +12133,7 @@
         <v>90</v>
       </c>
       <c r="C585" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D585" t="n">
         <v>24.4</v>
@@ -12153,7 +12153,7 @@
         <v>99</v>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D586" t="n">
         <v>35.4</v>
@@ -12173,7 +12173,7 @@
         <v>113</v>
       </c>
       <c r="C587" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D587" t="n">
         <v>29.5</v>
@@ -12193,7 +12193,7 @@
         <v>134</v>
       </c>
       <c r="C588" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D588" t="n">
         <v>25.9</v>
@@ -12202,7 +12202,7 @@
         <v>0.46</v>
       </c>
       <c r="F588" t="n">
-        <v>81</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="589">
@@ -12213,7 +12213,7 @@
         <v>151</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D589" t="n">
         <v>29.7</v>
@@ -12233,7 +12233,7 @@
         <v>106</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D590" t="n">
         <v>26.5</v>
@@ -12253,7 +12253,7 @@
         <v>123</v>
       </c>
       <c r="C591" t="n">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D591" t="n">
         <v>33.1</v>
@@ -12273,7 +12273,7 @@
         <v>119</v>
       </c>
       <c r="C592" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D592" t="n">
         <v>22.3</v>
@@ -12293,7 +12293,7 @@
         <v>143</v>
       </c>
       <c r="C593" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D593" t="n">
         <v>26.2</v>
@@ -12313,7 +12313,7 @@
         <v>89</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D594" t="n">
         <v>33.5</v>
@@ -12333,7 +12333,7 @@
         <v>122</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D595" t="n">
         <v>34.7</v>
@@ -12353,13 +12353,13 @@
         <v>128</v>
       </c>
       <c r="C596" t="n">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="D596" t="n">
         <v>30.5</v>
       </c>
       <c r="E596" t="n">
-        <v>1.391</v>
+        <v>1.2</v>
       </c>
       <c r="F596" t="n">
         <v>25</v>
@@ -12373,13 +12373,13 @@
         <v>199</v>
       </c>
       <c r="C597" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D597" t="n">
         <v>42.9</v>
       </c>
       <c r="E597" t="n">
-        <v>1.394</v>
+        <v>1.2</v>
       </c>
       <c r="F597" t="n">
         <v>22</v>
@@ -12393,7 +12393,7 @@
         <v>173</v>
       </c>
       <c r="C598" t="n">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="D598" t="n">
         <v>29.7</v>
@@ -12413,7 +12413,7 @@
         <v>145</v>
       </c>
       <c r="C599" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D599" t="n">
         <v>37.9</v>
@@ -12433,7 +12433,7 @@
         <v>122</v>
       </c>
       <c r="C600" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="D600" t="n">
         <v>49.7</v>
@@ -12453,7 +12453,7 @@
         <v>84</v>
       </c>
       <c r="C601" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D601" t="n">
         <v>35.8</v>
@@ -12473,7 +12473,7 @@
         <v>100</v>
       </c>
       <c r="C602" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D602" t="n">
         <v>38.5</v>
@@ -12493,7 +12493,7 @@
         <v>148</v>
       </c>
       <c r="C603" t="n">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="D603" t="n">
         <v>37.6</v>
@@ -12513,13 +12513,13 @@
         <v>118</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D604" t="n">
         <v>23.1</v>
       </c>
       <c r="E604" t="n">
-        <v>1.476</v>
+        <v>1.2</v>
       </c>
       <c r="F604" t="n">
         <v>46</v>
@@ -12533,7 +12533,7 @@
         <v>112</v>
       </c>
       <c r="C605" t="n">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="D605" t="n">
         <v>34.2</v>
@@ -12553,7 +12553,7 @@
         <v>74</v>
       </c>
       <c r="C606" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D606" t="n">
         <v>27.8</v>
@@ -12573,7 +12573,7 @@
         <v>111</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D607" t="n">
         <v>34.2</v>
@@ -12593,7 +12593,7 @@
         <v>138</v>
       </c>
       <c r="C608" t="n">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="D608" t="n">
         <v>36.1</v>
@@ -12613,7 +12613,7 @@
         <v>126</v>
       </c>
       <c r="C609" t="n">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="D609" t="n">
         <v>39.3</v>
@@ -12633,7 +12633,7 @@
         <v>122</v>
       </c>
       <c r="C610" t="n">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="D610" t="n">
         <v>35.9</v>
@@ -12653,7 +12653,7 @@
         <v>139</v>
       </c>
       <c r="C611" t="n">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D611" t="n">
         <v>28.6</v>
@@ -12673,7 +12673,7 @@
         <v>96</v>
       </c>
       <c r="C612" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D612" t="n">
         <v>22.4</v>
@@ -12693,7 +12693,7 @@
         <v>101</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D613" t="n">
         <v>45.6</v>
@@ -12713,7 +12713,7 @@
         <v>141</v>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D614" t="n">
         <v>42.4</v>
@@ -12733,7 +12733,7 @@
         <v>125</v>
       </c>
       <c r="C615" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D615" t="n">
         <v>22.5</v>
